--- a/passwords.xlsx
+++ b/passwords.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,34 +424,54 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Site</t>
+          <t>ttt</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Username</t>
+          <t>tt</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>gAAAAABmBVLFecKzZ5cHbltZgaKiKChHWOKAe9qHYO_xU3D60c-vRCMyiO2Rud-iuOLh6w-oWf1PHiY1hh2UpqZjFswwVcVtxg==</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>b19011d1404447edd269b8c44ee3a1b9</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>tt</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ameryka</t>
+          <t>alune</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>kondi</t>
+          <t>cykitemshop</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gAAAAABmBHJMwx17OpdwTrWJWjPKg7MP5mOM_bxI2iYl0c_3de5tNnj-CaQiESQwEYLrPGTaIEFeEZZRcP10b5P8VJALlOQ19A==</t>
+          <t>gAAAAABmBVgtCd877tmi-vehaj21RAo06JnFEI0uS_kS9EaSRPavWlDivKX0cL14pl_9Gbz95I-0TZSBHkWWP6M7-fD3QjSRCg==</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>536eb3b1bd22adfaba3619ac8f27a52b</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>sura wp 205</t>
         </is>
       </c>
     </row>
